--- a/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_3_202310_diag_fr_en.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/fr_en/oct 2023/cm_oncho_pre_stop_3_202310_diag_fr_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\fr_en\oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4B066-0E9C-4F3A-AE8B-E1B6E46337E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F215DB3-3431-426A-BCD2-42DBF50C6101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -286,12 +286,6 @@
     <t>Code du village remplassé</t>
   </si>
   <si>
-    <t>(Oct 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité V3 (EN - FR)</t>
-  </si>
-  <si>
-    <t>cm_oncho_pre_stop_3_202309_diag_fr_en_v3</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>constraint_message::English</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -365,6 +356,15 @@
   </si>
   <si>
     <t>Code Operator/Team</t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_3_202310_diag_fr_en</t>
+  </si>
+  <si>
+    <t>(Oct 2023) ONCHO - 3.Formulaire Résutat &amp; Morbidité V4 (EN - FR)</t>
+  </si>
+  <si>
+    <t>French</t>
   </si>
 </sst>
 </file>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>11</v>
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>14</v>
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24" t="s">
@@ -937,7 +937,7 @@
         <v>69</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="25" t="s">
@@ -1025,7 +1025,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="25" t="s">
@@ -1057,7 +1057,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="25" t="s">
@@ -1089,7 +1089,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="25" t="s">
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="25" t="s">
@@ -1149,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="25" t="s">
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="25" t="s">
@@ -1205,7 +1205,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="25" t="s">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="27" t="s">
@@ -1359,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="24" t="s">
@@ -1387,7 +1387,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24" t="s">
@@ -1415,7 +1415,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24" t="s">
@@ -1443,7 +1443,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="24" t="s">
@@ -1471,7 +1471,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24" t="s">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>11</v>
@@ -1620,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
@@ -1637,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>51</v>
@@ -1654,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>54</v>
@@ -1671,7 +1671,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>55</v>
@@ -1688,7 +1688,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>56</v>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
